--- a/compact_LTM4607_PCB/doc/converter/v2/power_converter_BOM.xlsx
+++ b/compact_LTM4607_PCB/doc/converter/v2/power_converter_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b59mi\Documents\Business\ARVP\compact_LTM4607_PCB\doc\converter\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b59mi\Documents\Business\ARVP\au_hardware\compact_LTM4607_PCB\doc\converter\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andrew Schroeder</author>
+  </authors>
+  <commentList>
+    <comment ref="I19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Schroeder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+We may already have several of these components on old converter boards that could be desoldered and used to save money.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>Qty</t>
   </si>
@@ -77,9 +111,6 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>R7</t>
-  </si>
-  <si>
     <t>RESISTOR, American symbol</t>
   </si>
   <si>
@@ -179,9 +210,6 @@
     <t>6.98k</t>
   </si>
   <si>
-    <t>R8</t>
-  </si>
-  <si>
     <t>8.5k</t>
   </si>
   <si>
@@ -272,10 +300,43 @@
     <t>Grand Total:</t>
   </si>
   <si>
-    <t>Received?</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>Parts List for Two Power Converter Boards (+5V, +12V)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>Converter (+12V)</t>
+  </si>
+  <si>
+    <t>Converter (+5V)</t>
+  </si>
+  <si>
+    <t>R7 (+12V)</t>
+  </si>
+  <si>
+    <t>R8 (+12V)</t>
+  </si>
+  <si>
+    <t>R7 (+5V)</t>
+  </si>
+  <si>
+    <t>R8 (+5V)</t>
+  </si>
+  <si>
+    <t>18.7k</t>
+  </si>
+  <si>
+    <t>ERA-3AEB4020V</t>
+  </si>
+  <si>
+    <t>ERA-3AEB1872V</t>
   </si>
 </sst>
 </file>
@@ -285,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,16 +362,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,24 +424,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,597 +787,701 @@
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="10" width="12.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J15" si="0">A2*I2</f>
-        <v>0.69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>57</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J16" si="0">A3*I3</f>
+        <v>1.38</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>17.88</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="2">
-        <v>4.47</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I7" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>8.94</v>
-      </c>
-      <c r="K4" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>6.38</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18">
+        <v>150</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18">
+        <v>402</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" ref="J16:J17" si="1">A16*I16</f>
+        <v>1.62</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5.35</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>5.35</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="6">
+        <f>A18*I18</f>
+        <v>0.3</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K6" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="16">
+        <v>56.02</v>
+      </c>
+      <c r="J19" s="16">
+        <f>A19*I19</f>
+        <v>112.04</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.19</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="2">
-        <v>56.02</v>
-      </c>
-      <c r="J16" s="2">
-        <f>A16*I16</f>
-        <v>56.02</v>
-      </c>
-      <c r="K16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="2">
-        <f>SUM(J2:J16)</f>
-        <v>90.409000000000006</v>
+      <c r="J20" s="2">
+        <f>SUM(J3:J19)</f>
+        <v>185.09800000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J16">
-    <sortState ref="A2:J16">
+  <autoFilter ref="A2:J17">
+    <sortState ref="A3:J17">
       <sortCondition ref="E1:E16"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="H11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="H14" r:id="rId14"/>
-    <hyperlink ref="H15" r:id="rId15"/>
+    <hyperlink ref="H19" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H18" r:id="rId15"/>
+    <hyperlink ref="H16" r:id="rId16"/>
+    <hyperlink ref="H17" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>